--- a/strategies/manuel/round4_manuel.xlsx
+++ b/strategies/manuel/round4_manuel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">Round 2 results :</t>
   </si>
@@ -79,13 +79,49 @@
     <t xml:space="preserve">Les plus rentables ont été ceux avec de petits mult de base et de petits multi / habitants.</t>
   </si>
   <si>
-    <t xml:space="preserve">Container 1 is free</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Container 1 is </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">free</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Container 2 cost 50k</t>
   </si>
   <si>
-    <t xml:space="preserve">First Suitcase is free</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">First Suitcase is </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">free</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">PARAMETERS :</t>
@@ -97,13 +133,16 @@
     <t xml:space="preserve">Big multiplier &gt; 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Thirsd is 100K</t>
+    <t xml:space="preserve">Third is 100K</t>
   </si>
   <si>
     <t xml:space="preserve">Big Ratio &gt; 15</t>
   </si>
   <si>
     <t xml:space="preserve">Previous best </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous worst</t>
   </si>
 </sst>
 </file>
@@ -523,7 +562,7 @@
   <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,25 +779,25 @@
       </c>
       <c r="F6" s="3"/>
       <c r="H6" s="10" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" s="10" t="n">
         <f aca="false">H6/I6</f>
-        <v>12.3333333333333</v>
+        <v>11.125</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L6" s="10" t="n">
         <f aca="false">IF(H6&gt;$L$30, IF(J6&gt;$L$31, K6+$K$31+$K$30, K6+$K$30),IF(J6&gt;$L$31, K6+$K$31, K6))</f>
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">H6/(I6+L6)*L$1</f>
-        <v>64347.8260869565</v>
+        <v>68461.5384615385</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -790,25 +829,25 @@
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="10" t="n">
         <f aca="false">H7/I7</f>
         <v>13.3333333333333</v>
       </c>
       <c r="K7" s="10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L7" s="10" t="n">
-        <f aca="false">IF(H7&gt;$L$30, IF(J7&gt;$L$31, K7+$K$31+$K$30, K7+$K$30),IF(J7&gt;$L$31, K7+$K$31, K7))</f>
-        <v>3.25</v>
+        <f aca="false">IF(H7&gt;$L$30, IF(J7&gt;$L$31, K7+$K$31+$K$30, K7+$K$30),IF(J7&gt;$L$31, K7+$K$31, K7))+$K$33</f>
+        <v>6</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">H7/(I7+L7)*L$1</f>
-        <v>64000</v>
+        <v>66666.6666666667</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -840,25 +879,25 @@
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="10" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="10" t="n">
         <f aca="false">H8/I8</f>
-        <v>17.5</v>
+        <v>11.8571428571429</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L8" s="10" t="n">
         <f aca="false">IF(H8&gt;$L$30, IF(J8&gt;$L$31, K8+$K$31+$K$30, K8+$K$30),IF(J8&gt;$L$31, K8+$K$31, K8))</f>
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M8" s="10" t="n">
         <f aca="false">H8/(I8+L8)*L$1</f>
-        <v>63636.3636363636</v>
+        <v>66400</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -890,25 +929,25 @@
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="10" t="n">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I9" s="10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J9" s="10" t="n">
         <f aca="false">H9/I9</f>
-        <v>11.125</v>
+        <v>12.3333333333333</v>
       </c>
       <c r="K9" s="10" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L9" s="10" t="n">
         <f aca="false">IF(H9&gt;$L$30, IF(J9&gt;$L$31, K9+$K$31+$K$30, K9+$K$30),IF(J9&gt;$L$31, K9+$K$31, K9))</f>
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M9" s="10" t="n">
         <f aca="false">H9/(I9+L9)*L$1</f>
-        <v>68461.5384615385</v>
+        <v>64347.8260869565</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -940,25 +979,25 @@
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="10" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J10" s="10" t="n">
         <f aca="false">H10/I10</f>
-        <v>11.8571428571429</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L10" s="10" t="n">
         <f aca="false">IF(H10&gt;$L$30, IF(J10&gt;$L$31, K10+$K$31+$K$30, K10+$K$30),IF(J10&gt;$L$31, K10+$K$31, K10))</f>
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M10" s="10" t="n">
         <f aca="false">H10/(I10+L10)*L$1</f>
-        <v>66400</v>
+        <v>64000</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -990,25 +1029,25 @@
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="10" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I11" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="10" t="n">
         <f aca="false">H11/I11</f>
-        <v>13.6666666666667</v>
+        <v>17.5</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L11" s="10" t="n">
         <f aca="false">IF(H11&gt;$L$30, IF(J11&gt;$L$31, K11+$K$31+$K$30, K11+$K$30),IF(J11&gt;$L$31, K11+$K$31, K11))</f>
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M11" s="10" t="n">
         <f aca="false">H11/(I11+L11)*L$1</f>
-        <v>60740.7407407407</v>
+        <v>63636.3636363636</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1039,26 +1078,26 @@
         <v>45577.7285045578</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="H12" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="5" t="n">
+      <c r="H12" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="10" t="n">
         <f aca="false">H12/I12</f>
-        <v>13.3333333333333</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L12" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L12" s="10" t="n">
         <f aca="false">IF(H12&gt;$L$30, IF(J12&gt;$L$31, K12+$K$31+$K$30, K12+$K$30),IF(J12&gt;$L$31, K12+$K$31, K12))</f>
-        <v>6.5</v>
-      </c>
-      <c r="M12" s="5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M12" s="10" t="n">
         <f aca="false">H12/(I12+L12)*L$1</f>
-        <v>64000</v>
+        <v>63157.8947368421</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1089,26 +1128,26 @@
         <v>50050.0500500501</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="H13" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5" t="n">
+      <c r="H13" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="10" t="n">
         <f aca="false">H13/I13</f>
-        <v>9</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L13" s="5" t="n">
+        <v>13.6666666666667</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L13" s="10" t="n">
         <f aca="false">IF(H13&gt;$L$30, IF(J13&gt;$L$31, K13+$K$31+$K$30, K13+$K$30),IF(J13&gt;$L$31, K13+$K$31, K13))</f>
-        <v>4.25</v>
-      </c>
-      <c r="M13" s="5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M13" s="10" t="n">
         <f aca="false">H13/(I13+L13)*L$1</f>
-        <v>63157.8947368421</v>
+        <v>60740.7407407407</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1140,25 +1179,25 @@
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="5" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="5" t="n">
         <f aca="false">H14/I14</f>
-        <v>11.5</v>
+        <v>15.8</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="L14" s="5" t="n">
         <f aca="false">IF(H14&gt;$L$30, IF(J14&gt;$L$31, K14+$K$31+$K$30, K14+$K$30),IF(J14&gt;$L$31, K14+$K$31, K14))</f>
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="M14" s="5" t="n">
         <f aca="false">H14/(I14+L14)*L$1</f>
-        <v>54117.6470588235</v>
+        <v>54482.7586206897</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1178,25 +1217,25 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="H15" s="5" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="5" t="n">
         <f aca="false">H15/I15</f>
-        <v>15.8</v>
+        <v>11.5</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="L15" s="5" t="n">
         <f aca="false">IF(H15&gt;$L$30, IF(J15&gt;$L$31, K15+$K$31+$K$30, K15+$K$30),IF(J15&gt;$L$31, K15+$K$31, K15))</f>
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="M15" s="5" t="n">
         <f aca="false">H15/(I15+L15)*L$1</f>
-        <v>54482.7586206897</v>
+        <v>54117.6470588235</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1216,25 +1255,25 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="H16" s="5" t="n">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="5" t="n">
         <f aca="false">H16/I16</f>
-        <v>15.6666666666667</v>
+        <v>18.25</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="L16" s="5" t="n">
-        <f aca="false">IF(H16&gt;$L$30, IF(J16&gt;$L$31, K16+$K$31+$K$30, K16+$K$30),IF(J16&gt;$L$31, K16+$K$31, K16))</f>
-        <v>6.25</v>
+        <f aca="false">IF(H16&gt;$L$30, IF(J16&gt;$L$31, K16+$K$31+$K$30, K16+$K$30),IF(J16&gt;$L$31, K16+$K$31, K16))+$K$33</f>
+        <v>9.75</v>
       </c>
       <c r="M16" s="5" t="n">
         <f aca="false">H16/(I16+L16)*L$1</f>
-        <v>50810.8108108108</v>
+        <v>53090.9090909091</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1254,17 +1293,17 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="H17" s="5" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J17" s="5" t="n">
         <f aca="false">H17/I17</f>
-        <v>15</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L17" s="5" t="n">
         <f aca="false">IF(H17&gt;$L$30, IF(J17&gt;$L$31, K17+$K$31+$K$30, K17+$K$30),IF(J17&gt;$L$31, K17+$K$31, K17))</f>
@@ -1272,7 +1311,7 @@
       </c>
       <c r="M17" s="5" t="n">
         <f aca="false">H17/(I17+L17)*L$1</f>
-        <v>50000</v>
+        <v>52631.5789473684</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,25 +1324,25 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="H18" s="5" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J18" s="5" t="n">
         <f aca="false">H18/I18</f>
-        <v>6.66666666666667</v>
+        <v>15.6666666666667</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="L18" s="5" t="n">
         <f aca="false">IF(H18&gt;$L$30, IF(J18&gt;$L$31, K18+$K$31+$K$30, K18+$K$30),IF(J18&gt;$L$31, K18+$K$31, K18))</f>
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="M18" s="5" t="n">
         <f aca="false">H18/(I18+L18)*L$1</f>
-        <v>52631.5789473684</v>
+        <v>50810.8108108108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,25 +1355,25 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="H19" s="5" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="5" t="n">
         <f aca="false">H19/I19</f>
-        <v>18.25</v>
+        <v>15</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="L19" s="5" t="n">
         <f aca="false">IF(H19&gt;$L$30, IF(J19&gt;$L$31, K19+$K$31+$K$30, K19+$K$30),IF(J19&gt;$L$31, K19+$K$31, K19))</f>
-        <v>10.25</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <f aca="false">H19/(I19+L19)*L$1</f>
-        <v>51228.0701754386</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,7 +1399,7 @@
         <v>1.75</v>
       </c>
       <c r="L20" s="11" t="n">
-        <f aca="false">IF(H20&gt;$L$30, IF(J20&gt;$L$31, K20+$K$31+$K$30, K20+$K$30),IF(J20&gt;$L$31, K20+$K$31, K20))+K32</f>
+        <f aca="false">IF(H20&gt;$L$30, IF(J20&gt;$L$31, K20+$K$31+$K$30, K20+$K$30),IF(J20&gt;$L$31, K20+$K$31, K20))+$K$32</f>
         <v>2.25</v>
       </c>
       <c r="M20" s="11" t="n">
@@ -1377,26 +1416,26 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="H21" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="I21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="11" t="n">
+      <c r="H21" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="I21" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="12" t="n">
         <f aca="false">H21/I21</f>
-        <v>10</v>
-      </c>
-      <c r="K21" s="11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L21" s="11" t="n">
-        <f aca="false">IF(H21&gt;$L$30, IF(J21&gt;$L$31, K21+$K$31+$K$30, K21+$K$30),IF(J21&gt;$L$31, K21+$K$31, K21))+K32</f>
-        <v>2</v>
-      </c>
-      <c r="M21" s="11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K21" s="12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L21" s="12" t="n">
+        <f aca="false">IF(H21&gt;$L$30, IF(J21&gt;$L$31, K21+$K$31+$K$30, K21+$K$30),IF(J21&gt;$L$31, K21+$K$31, K21))</f>
+        <v>6</v>
+      </c>
+      <c r="M21" s="12" t="n">
         <f aca="false">H21/(I21+L21)*L$1</f>
-        <v>33333.3333333333</v>
+        <v>38750</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,26 +1445,26 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="H22" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="I22" s="12" t="n">
+      <c r="H22" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <f aca="false">H22/I22</f>
+        <v>10</v>
+      </c>
+      <c r="K22" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="11" t="n">
+        <f aca="false">IF(H22&gt;$L$30, IF(J22&gt;$L$31, K22+$K$31+$K$30, K22+$K$30),IF(J22&gt;$L$31, K22+$K$31, K22))+$K$32</f>
         <v>2</v>
       </c>
-      <c r="J22" s="12" t="n">
-        <f aca="false">H22/I22</f>
-        <v>15.5</v>
-      </c>
-      <c r="K22" s="12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <f aca="false">IF(H22&gt;$L$30, IF(J22&gt;$L$31, K22+$K$31+$K$30, K22+$K$30),IF(J22&gt;$L$31, K22+$K$31, K22))</f>
-        <v>6</v>
-      </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="11" t="n">
         <f aca="false">H22/(I22+L22)*L$1</f>
-        <v>38750</v>
+        <v>33333.3333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,12 +1490,12 @@
         <v>5.25</v>
       </c>
       <c r="L23" s="12" t="n">
-        <f aca="false">IF(H23&gt;$L$30, IF(J23&gt;$L$31, K23+$K$31+$K$30, K23+$K$30),IF(J23&gt;$L$31, K23+$K$31, K23))</f>
-        <v>6.75</v>
+        <f aca="false">IF(H23&gt;$L$30, IF(J23&gt;$L$31, K23+$K$31+$K$30, K23+$K$30),IF(J23&gt;$L$31, K23+$K$31, K23))+$K$33</f>
+        <v>6.25</v>
       </c>
       <c r="M23" s="12" t="n">
         <f aca="false">H23/(I23+L23)*L$1</f>
-        <v>21935.4838709677</v>
+        <v>23448.275862069</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,6 +1635,12 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>-0.5</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>

--- a/strategies/manuel/round4_manuel.xlsx
+++ b/strategies/manuel/round4_manuel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">Round 2 results :</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">Final reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*What I think need to be choosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick 2 of them</t>
   </si>
   <si>
     <t xml:space="preserve">CONCLUSION</t>
@@ -562,7 +571,7 @@
   <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,25 +688,31 @@
       </c>
       <c r="F4" s="3"/>
       <c r="H4" s="8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I4" s="8" t="n">
         <v>4</v>
       </c>
       <c r="J4" s="8" t="n">
         <f aca="false">H4/I4</f>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="L4" s="8" t="n">
-        <f aca="false">IF(H4&gt;$L$30, IF(J4&gt;$L$31, K4+$K$31+$K$30, K4+$K$30),IF(J4&gt;$L$31, K4+$K$31, K4))</f>
-        <v>4.25</v>
+        <f aca="false">IF(H4&gt;=$L$30, IF(J4&gt;=$L$31, K4+$K$31+$K$30, K4+$K$30),IF(J4&gt;=$L$31, K4+$K$31, K4))</f>
+        <v>3</v>
       </c>
       <c r="M4" s="8" t="n">
         <f aca="false">H4/(I4+L4)*L$1</f>
-        <v>72727.2727272727</v>
+        <v>71428.5714285714</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -728,26 +743,29 @@
         <v>19908.6544091814</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="H5" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="H5" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="n">
         <f aca="false">H5/I5</f>
-        <v>12.5</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <f aca="false">IF(H5&gt;$L$30, IF(J5&gt;$L$31, K5+$K$31+$K$30, K5+$K$30),IF(J5&gt;$L$31, K5+$K$31, K5))</f>
-        <v>3</v>
-      </c>
-      <c r="M5" s="8" t="n">
+        <v>11.125</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <f aca="false">IF(H5&gt;=$L$30, IF(J5&gt;=$L$31, K5+$K$31+$K$30, K5+$K$30),IF(J5&gt;=$L$31, K5+$K$31, K5))</f>
+        <v>5</v>
+      </c>
+      <c r="M5" s="10" t="n">
         <f aca="false">H5/(I5+L5)*L$1</f>
-        <v>71428.5714285714</v>
+        <v>68461.5384615385</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -779,25 +797,25 @@
       </c>
       <c r="F6" s="3"/>
       <c r="H6" s="10" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="10" t="n">
         <f aca="false">H6/I6</f>
-        <v>11.125</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L6" s="10" t="n">
-        <f aca="false">IF(H6&gt;$L$30, IF(J6&gt;$L$31, K6+$K$31+$K$30, K6+$K$30),IF(J6&gt;$L$31, K6+$K$31, K6))</f>
-        <v>5</v>
+        <f aca="false">IF(H6&gt;=$L$30, IF(J6&gt;=$L$31, K6+$K$31+$K$30, K6+$K$30),IF(J6&gt;=$L$31, K6+$K$31, K6))+$K$33</f>
+        <v>6</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">H6/(I6+L6)*L$1</f>
-        <v>68461.5384615385</v>
+        <v>66666.6666666667</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -829,25 +847,25 @@
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="10" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="10" t="n">
         <f aca="false">H7/I7</f>
-        <v>13.3333333333333</v>
+        <v>11.8571428571429</v>
       </c>
       <c r="K7" s="10" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L7" s="10" t="n">
-        <f aca="false">IF(H7&gt;$L$30, IF(J7&gt;$L$31, K7+$K$31+$K$30, K7+$K$30),IF(J7&gt;$L$31, K7+$K$31, K7))+$K$33</f>
-        <v>6</v>
+        <f aca="false">IF(H7&gt;=$L$30, IF(J7&gt;=$L$31, K7+$K$31+$K$30, K7+$K$30),IF(J7&gt;=$L$31, K7+$K$31, K7))</f>
+        <v>5.5</v>
       </c>
       <c r="M7" s="10" t="n">
         <f aca="false">H7/(I7+L7)*L$1</f>
-        <v>66666.6666666667</v>
+        <v>66400</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -878,26 +896,29 @@
         <v>34494.2695003895</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="H8" s="10" t="n">
-        <v>83</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" s="10" t="n">
+      <c r="H8" s="8" t="n">
+        <v>37</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="8" t="n">
         <f aca="false">H8/I8</f>
-        <v>11.8571428571429</v>
-      </c>
-      <c r="K8" s="10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L8" s="10" t="n">
-        <f aca="false">IF(H8&gt;$L$30, IF(J8&gt;$L$31, K8+$K$31+$K$30, K8+$K$30),IF(J8&gt;$L$31, K8+$K$31, K8))</f>
-        <v>5.5</v>
-      </c>
-      <c r="M8" s="10" t="n">
+        <v>12.3333333333333</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <f aca="false">IF(H8&gt;=$L$30, IF(J8&gt;=$L$31, K8+$K$31+$K$30, K8+$K$30),IF(J8&gt;=$L$31, K8+$K$31, K8))</f>
+        <v>2.75</v>
+      </c>
+      <c r="M8" s="8" t="n">
         <f aca="false">H8/(I8+L8)*L$1</f>
-        <v>66400</v>
+        <v>64347.8260869565</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -928,26 +949,29 @@
         <v>38388.5438233264</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="H9" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="I9" s="10" t="n">
+      <c r="H9" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="8" t="n">
         <f aca="false">H9/I9</f>
-        <v>12.3333333333333</v>
-      </c>
-      <c r="K9" s="10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L9" s="10" t="n">
-        <f aca="false">IF(H9&gt;$L$30, IF(J9&gt;$L$31, K9+$K$31+$K$30, K9+$K$30),IF(J9&gt;$L$31, K9+$K$31, K9))</f>
-        <v>2.75</v>
-      </c>
-      <c r="M9" s="10" t="n">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <f aca="false">IF(H9&gt;=$L$30, IF(J9&gt;=$L$31, K9+$K$31+$K$30, K9+$K$30),IF(J9&gt;=$L$31, K9+$K$31, K9))</f>
+        <v>3.25</v>
+      </c>
+      <c r="M9" s="8" t="n">
         <f aca="false">H9/(I9+L9)*L$1</f>
-        <v>64347.8260869565</v>
+        <v>64000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -979,25 +1003,25 @@
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="10" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J10" s="10" t="n">
         <f aca="false">H10/I10</f>
-        <v>13.3333333333333</v>
+        <v>9</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="L10" s="10" t="n">
-        <f aca="false">IF(H10&gt;$L$30, IF(J10&gt;$L$31, K10+$K$31+$K$30, K10+$K$30),IF(J10&gt;$L$31, K10+$K$31, K10))</f>
-        <v>3.25</v>
+        <f aca="false">IF(H10&gt;=$L$30, IF(J10&gt;=$L$31, K10+$K$31+$K$30, K10+$K$30),IF(J10&gt;=$L$31, K10+$K$31, K10))</f>
+        <v>4.25</v>
       </c>
       <c r="M10" s="10" t="n">
         <f aca="false">H10/(I10+L10)*L$1</f>
-        <v>64000</v>
+        <v>63157.8947368421</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1029,25 +1053,25 @@
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I11" s="10" t="n">
         <v>4</v>
       </c>
       <c r="J11" s="10" t="n">
         <f aca="false">H11/I11</f>
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="L11" s="10" t="n">
-        <f aca="false">IF(H11&gt;$L$30, IF(J11&gt;$L$31, K11+$K$31+$K$30, K11+$K$30),IF(J11&gt;$L$31, K11+$K$31, K11))</f>
-        <v>7</v>
+        <f aca="false">IF(H11&gt;=$L$30, IF(J11&gt;=$L$31, K11+$K$31+$K$30, K11+$K$30),IF(J11&gt;=$L$31, K11+$K$31, K11))</f>
+        <v>5.75</v>
       </c>
       <c r="M11" s="10" t="n">
         <f aca="false">H11/(I11+L11)*L$1</f>
-        <v>63636.3636363636</v>
+        <v>61538.4615384615</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1079,25 +1103,25 @@
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="10" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I12" s="10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J12" s="10" t="n">
         <f aca="false">H12/I12</f>
-        <v>9</v>
+        <v>13.6666666666667</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="L12" s="10" t="n">
-        <f aca="false">IF(H12&gt;$L$30, IF(J12&gt;$L$31, K12+$K$31+$K$30, K12+$K$30),IF(J12&gt;$L$31, K12+$K$31, K12))</f>
-        <v>4.25</v>
+        <f aca="false">IF(H12&gt;=$L$30, IF(J12&gt;=$L$31, K12+$K$31+$K$30, K12+$K$30),IF(J12&gt;=$L$31, K12+$K$31, K12))</f>
+        <v>3.75</v>
       </c>
       <c r="M12" s="10" t="n">
         <f aca="false">H12/(I12+L12)*L$1</f>
-        <v>63157.8947368421</v>
+        <v>60740.7407407407</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1128,26 +1152,26 @@
         <v>50050.0500500501</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="H13" s="10" t="n">
-        <v>41</v>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" s="10" t="n">
+      <c r="H13" s="7" t="n">
+        <v>79</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7" t="n">
         <f aca="false">H13/I13</f>
-        <v>13.6666666666667</v>
-      </c>
-      <c r="K13" s="10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L13" s="10" t="n">
-        <f aca="false">IF(H13&gt;$L$30, IF(J13&gt;$L$31, K13+$K$31+$K$30, K13+$K$30),IF(J13&gt;$L$31, K13+$K$31, K13))</f>
-        <v>3.75</v>
-      </c>
-      <c r="M13" s="10" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K13" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <f aca="false">IF(H13&gt;=$L$30, IF(J13&gt;=$L$31, K13+$K$31+$K$30, K13+$K$30),IF(J13&gt;=$L$31, K13+$K$31, K13))</f>
+        <v>9.5</v>
+      </c>
+      <c r="M13" s="7" t="n">
         <f aca="false">H13/(I13+L13)*L$1</f>
-        <v>60740.7407407407</v>
+        <v>54482.7586206897</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1178,26 +1202,26 @@
         <v>55340.3431101273</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="H14" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" s="5" t="n">
+      <c r="H14" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7" t="n">
         <f aca="false">H14/I14</f>
-        <v>15.8</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <f aca="false">IF(H14&gt;$L$30, IF(J14&gt;$L$31, K14+$K$31+$K$30, K14+$K$30),IF(J14&gt;$L$31, K14+$K$31, K14))</f>
-        <v>9.5</v>
-      </c>
-      <c r="M14" s="5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K14" s="7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <f aca="false">IF(H14&gt;=$L$30, IF(J14&gt;=$L$31, K14+$K$31+$K$30, K14+$K$30),IF(J14&gt;=$L$31, K14+$K$31, K14))</f>
+        <v>2.25</v>
+      </c>
+      <c r="M14" s="7" t="n">
         <f aca="false">H14/(I14+L14)*L$1</f>
-        <v>54482.7586206897</v>
+        <v>54117.6470588235</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1216,26 +1240,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="H15" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5" t="n">
+      <c r="H15" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J15" s="7" t="n">
         <f aca="false">H15/I15</f>
-        <v>11.5</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <f aca="false">IF(H15&gt;$L$30, IF(J15&gt;$L$31, K15+$K$31+$K$30, K15+$K$30),IF(J15&gt;$L$31, K15+$K$31, K15))</f>
-        <v>2.25</v>
-      </c>
-      <c r="M15" s="5" t="n">
+        <v>6.66666666666667</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <f aca="false">IF(H15&gt;=$L$30, IF(J15&gt;=$L$31, K15+$K$31+$K$30, K15+$K$30),IF(J15&gt;=$L$31, K15+$K$31, K15))</f>
+        <v>4</v>
+      </c>
+      <c r="M15" s="7" t="n">
         <f aca="false">H15/(I15+L15)*L$1</f>
-        <v>54117.6470588235</v>
+        <v>52631.5789473684</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1254,26 +1278,26 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="H16" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" s="5" t="n">
+      <c r="H16" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7" t="n">
         <f aca="false">H16/I16</f>
-        <v>18.25</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <f aca="false">IF(H16&gt;$L$30, IF(J16&gt;$L$31, K16+$K$31+$K$30, K16+$K$30),IF(J16&gt;$L$31, K16+$K$31, K16))+$K$33</f>
-        <v>9.75</v>
-      </c>
-      <c r="M16" s="5" t="n">
+        <v>15.6666666666667</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <f aca="false">IF(H16&gt;=$L$30, IF(J16&gt;=$L$31, K16+$K$31+$K$30, K16+$K$30),IF(J16&gt;=$L$31, K16+$K$31, K16))</f>
+        <v>6.25</v>
+      </c>
+      <c r="M16" s="7" t="n">
         <f aca="false">H16/(I16+L16)*L$1</f>
-        <v>53090.9090909091</v>
+        <v>50810.8108108108</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1292,93 +1316,93 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" s="5" t="n">
+      <c r="H17" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" s="7" t="n">
         <f aca="false">H17/I17</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <f aca="false">IF(H17&gt;$L$30, IF(J17&gt;$L$31, K17+$K$31+$K$30, K17+$K$30),IF(J17&gt;$L$31, K17+$K$31, K17))</f>
-        <v>4</v>
-      </c>
-      <c r="M17" s="5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K17" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <f aca="false">IF(H17&gt;=$L$30, IF(J17&gt;=$L$31, K17+$K$31+$K$30, K17+$K$30),IF(J17&gt;=$L$31, K17+$K$31, K17))</f>
+        <v>10</v>
+      </c>
+      <c r="M17" s="7" t="n">
         <f aca="false">H17/(I17+L17)*L$1</f>
-        <v>52631.5789473684</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" s="5" t="n">
+      <c r="H18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7" t="n">
         <f aca="false">H18/I18</f>
-        <v>15.6666666666667</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <f aca="false">IF(H18&gt;$L$30, IF(J18&gt;$L$31, K18+$K$31+$K$30, K18+$K$30),IF(J18&gt;$L$31, K18+$K$31, K18))</f>
-        <v>6.25</v>
-      </c>
-      <c r="M18" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <f aca="false">IF(H18&gt;=$L$30, IF(J18&gt;=$L$31, K18+$K$31+$K$30, K18+$K$30),IF(J18&gt;=$L$31, K18+$K$31, K18))+$K$33</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="7" t="n">
         <f aca="false">H18/(I18+L18)*L$1</f>
-        <v>50810.8108108108</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="5" t="n">
+      <c r="H19" s="11" t="n">
+        <v>73</v>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" s="11" t="n">
         <f aca="false">H19/I19</f>
-        <v>15</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <f aca="false">IF(H19&gt;$L$30, IF(J19&gt;$L$31, K19+$K$31+$K$30, K19+$K$30),IF(J19&gt;$L$31, K19+$K$31, K19))</f>
-        <v>4</v>
-      </c>
-      <c r="M19" s="5" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L19" s="11" t="n">
+        <f aca="false">IF(H19&gt;=$L$30, IF(J19&gt;=$L$31, K19+$K$31+$K$30, K19+$K$30),IF(J19&gt;=$L$31, K19+$K$31, K19))+$K$32</f>
+        <v>10.75</v>
+      </c>
+      <c r="M19" s="11" t="n">
         <f aca="false">H19/(I19+L19)*L$1</f>
-        <v>50000</v>
+        <v>49491.5254237288</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1399,7 +1423,7 @@
         <v>1.75</v>
       </c>
       <c r="L20" s="11" t="n">
-        <f aca="false">IF(H20&gt;$L$30, IF(J20&gt;$L$31, K20+$K$31+$K$30, K20+$K$30),IF(J20&gt;$L$31, K20+$K$31, K20))+$K$32</f>
+        <f aca="false">IF(H20&gt;=$L$30, IF(J20&gt;=$L$31, K20+$K$31+$K$30, K20+$K$30),IF(J20&gt;=$L$31, K20+$K$31, K20))+$K$32</f>
         <v>2.25</v>
       </c>
       <c r="M20" s="11" t="n">
@@ -1409,33 +1433,33 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="H21" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="I21" s="12" t="n">
+      <c r="H21" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="12" t="n">
+      <c r="J21" s="11" t="n">
         <f aca="false">H21/I21</f>
-        <v>15.5</v>
-      </c>
-      <c r="K21" s="12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L21" s="12" t="n">
-        <f aca="false">IF(H21&gt;$L$30, IF(J21&gt;$L$31, K21+$K$31+$K$30, K21+$K$30),IF(J21&gt;$L$31, K21+$K$31, K21))</f>
-        <v>6</v>
-      </c>
-      <c r="M21" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="11" t="n">
+        <f aca="false">IF(H21&gt;=$L$30, IF(J21&gt;=$L$31, K21+$K$31+$K$30, K21+$K$30),IF(J21&gt;=$L$31, K21+$K$31, K21))</f>
+        <v>5.5</v>
+      </c>
+      <c r="M21" s="11" t="n">
         <f aca="false">H21/(I21+L21)*L$1</f>
-        <v>38750</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,31 +1469,31 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="H22" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="I22" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="11" t="n">
+      <c r="H22" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="I22" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="12" t="n">
         <f aca="false">H22/I22</f>
-        <v>10</v>
-      </c>
-      <c r="K22" s="11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L22" s="11" t="n">
-        <f aca="false">IF(H22&gt;$L$30, IF(J22&gt;$L$31, K22+$K$31+$K$30, K22+$K$30),IF(J22&gt;$L$31, K22+$K$31, K22))+$K$32</f>
-        <v>2</v>
-      </c>
-      <c r="M22" s="11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K22" s="12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L22" s="12" t="n">
+        <f aca="false">IF(H22&gt;=$L$30, IF(J22&gt;=$L$31, K22+$K$31+$K$30, K22+$K$30),IF(J22&gt;=$L$31, K22+$K$31, K22))</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="12" t="n">
         <f aca="false">H22/(I22+L22)*L$1</f>
-        <v>33333.3333333333</v>
+        <v>38750</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1490,7 +1514,7 @@
         <v>5.25</v>
       </c>
       <c r="L23" s="12" t="n">
-        <f aca="false">IF(H23&gt;$L$30, IF(J23&gt;$L$31, K23+$K$31+$K$30, K23+$K$30),IF(J23&gt;$L$31, K23+$K$31, K23))+$K$33</f>
+        <f aca="false">IF(H23&gt;=$L$30, IF(J23&gt;=$L$31, K23+$K$31+$K$30, K23+$K$30),IF(J23&gt;=$L$31, K23+$K$31, K23))+$K$33</f>
         <v>6.25</v>
       </c>
       <c r="M23" s="12" t="n">
@@ -1531,7 +1555,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1547,7 +1571,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1572,10 +1596,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -1585,10 +1609,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>3</v>
@@ -1604,10 +1628,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>1.5</v>
@@ -1623,7 +1647,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>0.5</v>
@@ -1636,7 +1660,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>-0.5</v>
@@ -1655,6 +1679,8 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -1662,6 +1688,8 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
